--- a/out_booth_88/suspect_summary.xlsx
+++ b/out_booth_88/suspect_summary.xlsx
@@ -1094,18 +1094,10 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Serial number 8 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1390,18 +1382,10 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Serial number 12 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,12 +1452,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Serial number 13 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 13 does not have any valid parent or spouse relationship with other voters in house number 3 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
         </is>
       </c>
     </row>
@@ -1604,10 +1588,18 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Serial number 15 does not have any valid parent or spouse relationship with other voters in house number 3 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,18 +2090,10 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Serial number 22 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3300,10 +3284,18 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Serial number 39 does not have any valid parent or spouse relationship with other voters in house number 6-8 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3366,10 +3358,18 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Serial number 40 does not have any valid parent or spouse relationship with other voters in house number 6-8 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4782,16 +4782,16 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Serial number 60 has invalid age value 0.</t>
+          <t>Serial number 60 does not have any valid parent or spouse relationship with other voters in house number 14-29B1 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | Serial number 60 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -4856,10 +4856,18 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Serial number 61 does not have any valid parent or spouse relationship with other voters in house number 14-29B1 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4922,10 +4930,18 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Serial number 62 does not have any valid parent or spouse relationship with other voters in house number 14-29B1 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5358,18 +5374,10 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Serial number 68 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5432,18 +5440,10 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Serial number 69 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5506,18 +5506,10 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Serial number 70 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5580,16 +5572,16 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Serial number 71 has invalid age value 0.</t>
+          <t>Serial number 71 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | Serial number 71 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -5654,18 +5646,10 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Serial number 72 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5728,18 +5712,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Serial number 73 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6082,16 +6058,16 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Serial number 78 is the only voter listed under house number 21/50 on street '1-WARD NO 39 BHARATHI NAGAR COLONY' in booth 88. | Serial number 78 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 78 is the only voter listed under house number 21/50 on street '1-WARD NO 39 BHARATHI NAGAR COLONY' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -6568,10 +6544,18 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Serial number 85 does not have any valid parent or spouse relationship with other voters in house number 25 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7178,10 +7162,18 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Serial number 94 does not have any valid parent or spouse relationship with other voters in house number 26-1 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7664,10 +7656,18 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Serial number 101 does not have any valid parent or spouse relationship with other voters in house number 27 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -8216,10 +8216,18 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Serial number 109 does not have any valid parent or spouse relationship with other voters in house number 29 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8866,10 +8874,18 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Serial number 118 does not have any valid parent or spouse relationship with other voters in house number 32 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -9468,10 +9484,18 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>Serial number 127 does not have any valid parent or spouse relationship with other voters in house number 35 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -9732,18 +9756,10 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>Serial number 131 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -10358,18 +10374,10 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>1</v>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>Serial number 140 is the only voter listed under house number 38/74 on street '1-WARD NO 39 BHARATHI NAGAR COLONY' in booth 88.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -10992,10 +11000,18 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>Serial number 149 does not have any valid parent or spouse relationship with other voters in house number 39A on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -11132,10 +11148,18 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>Serial number 151 does not have any valid parent or spouse relationship with other voters in house number 39A on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -12030,18 +12054,10 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>1</v>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>Serial number 164 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -13076,16 +13092,16 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>Serial number 179 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 179 does not have any valid parent or spouse relationship with other voters in house number 51 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | Serial number 179 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -13974,18 +13990,10 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>1</v>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>Serial number 192 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -14048,18 +14056,10 @@
         </is>
       </c>
       <c r="N194" t="n">
-        <v>1</v>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>Serial number 193 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -14600,10 +14600,18 @@
         </is>
       </c>
       <c r="N202" t="n">
-        <v>0</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>Serial number 201 does not have any valid parent or spouse relationship with other voters in house number 56 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -14798,16 +14806,16 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>Serial number 204 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 204 does not have any valid parent or spouse relationship with other voters in house number 56 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | Serial number 204 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -15556,10 +15564,18 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Serial number 215 does not have any valid parent or spouse relationship with other voters in house number 58 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -18346,10 +18362,18 @@
         </is>
       </c>
       <c r="N255" t="n">
-        <v>0</v>
-      </c>
-      <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>Serial number 254 does not have any valid parent or spouse relationship with other voters in house number 64-2 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -18412,10 +18436,18 @@
         </is>
       </c>
       <c r="N256" t="n">
-        <v>0</v>
-      </c>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>Serial number 255 does not have any valid parent or spouse relationship with other voters in house number 64-2 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -18626,10 +18658,18 @@
         </is>
       </c>
       <c r="N259" t="n">
-        <v>0</v>
-      </c>
-      <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>Serial number 258 does not have any valid parent or spouse relationship with other voters in house number 66 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -20340,10 +20380,18 @@
         </is>
       </c>
       <c r="N284" t="n">
-        <v>0</v>
-      </c>
-      <c r="O284" t="inlineStr"/>
-      <c r="P284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>Serial number 283 does not have any valid parent or spouse relationship with other voters in house number 75 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -21114,10 +21162,18 @@
         </is>
       </c>
       <c r="N295" t="n">
-        <v>0</v>
-      </c>
-      <c r="O295" t="inlineStr"/>
-      <c r="P295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>Serial number 294 does not have any valid parent or spouse relationship with other voters in house number 79 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -21254,10 +21310,18 @@
         </is>
       </c>
       <c r="N297" t="n">
-        <v>0</v>
-      </c>
-      <c r="O297" t="inlineStr"/>
-      <c r="P297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>Serial number 296 does not have any valid parent or spouse relationship with other voters in house number 79 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -21468,10 +21532,18 @@
         </is>
       </c>
       <c r="N300" t="n">
-        <v>0</v>
-      </c>
-      <c r="O300" t="inlineStr"/>
-      <c r="P300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>Serial number 299 does not have any valid parent or spouse relationship with other voters in house number 79B on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -21534,10 +21606,18 @@
         </is>
       </c>
       <c r="N301" t="n">
-        <v>0</v>
-      </c>
-      <c r="O301" t="inlineStr"/>
-      <c r="P301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>Serial number 300 does not have any valid parent or spouse relationship with other voters in house number 79B on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -23272,18 +23352,10 @@
         </is>
       </c>
       <c r="N326" t="n">
-        <v>1</v>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P326" t="inlineStr">
-        <is>
-          <t>Serial number 325 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O326" t="inlineStr"/>
+      <c r="P326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -23420,18 +23492,10 @@
         </is>
       </c>
       <c r="N328" t="n">
-        <v>1</v>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P328" t="inlineStr">
-        <is>
-          <t>Serial number 327 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O328" t="inlineStr"/>
+      <c r="P328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -23700,18 +23764,10 @@
         </is>
       </c>
       <c r="N332" t="n">
-        <v>1</v>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P332" t="inlineStr">
-        <is>
-          <t>Serial number 331 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -24194,10 +24250,18 @@
         </is>
       </c>
       <c r="N339" t="n">
-        <v>0</v>
-      </c>
-      <c r="O339" t="inlineStr"/>
-      <c r="P339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>Serial number 338 does not have any valid parent or spouse relationship with other voters in house number 88d on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -24804,16 +24868,16 @@
         </is>
       </c>
       <c r="N348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>HOUSE_NO_UNAVAILABLE, INVALID_EPIC_ID</t>
+          <t>HOUSE_NO_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>Serial number 347 was flagged due to rule: INVALID_EPIC_ID. | Serial number 347 does not have a valid house number recorded.</t>
+          <t>Serial number 347 does not have a valid house number recorded.</t>
         </is>
       </c>
     </row>
@@ -25290,18 +25354,10 @@
         </is>
       </c>
       <c r="N355" t="n">
-        <v>1</v>
-      </c>
-      <c r="O355" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P355" t="inlineStr">
-        <is>
-          <t>Serial number 354 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -25628,10 +25684,18 @@
         </is>
       </c>
       <c r="N360" t="n">
-        <v>0</v>
-      </c>
-      <c r="O360" t="inlineStr"/>
-      <c r="P360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>Serial number 359 does not have any valid parent or spouse relationship with other voters in house number 94 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -26164,10 +26228,18 @@
         </is>
       </c>
       <c r="N368" t="n">
-        <v>0</v>
-      </c>
-      <c r="O368" t="inlineStr"/>
-      <c r="P368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>Serial number 367 does not have any valid parent or spouse relationship with other voters in house number 96 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -26980,10 +27052,18 @@
         </is>
       </c>
       <c r="N380" t="n">
-        <v>0</v>
-      </c>
-      <c r="O380" t="inlineStr"/>
-      <c r="P380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>Serial number 379 does not have any valid parent or spouse relationship with other voters in house number 100 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -27260,10 +27340,18 @@
         </is>
       </c>
       <c r="N384" t="n">
-        <v>0</v>
-      </c>
-      <c r="O384" t="inlineStr"/>
-      <c r="P384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>Serial number 383 does not have any valid parent or spouse relationship with other voters in house number 100-B1 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -27326,16 +27414,16 @@
         </is>
       </c>
       <c r="N385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>Serial number 384 has invalid age value 0.</t>
+          <t>Serial number 384 does not have any valid parent or spouse relationship with other voters in house number 100-B1 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | Serial number 384 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -27466,16 +27554,16 @@
         </is>
       </c>
       <c r="N387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P387" t="inlineStr">
         <is>
-          <t>Serial number 386 does not have any valid parent or spouse relationship with other voters in house number 101 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | Serial number 386 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 386 does not have any valid parent or spouse relationship with other voters in house number 101 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
         </is>
       </c>
     </row>
@@ -28232,10 +28320,18 @@
         </is>
       </c>
       <c r="N398" t="n">
-        <v>0</v>
-      </c>
-      <c r="O398" t="inlineStr"/>
-      <c r="P398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>Serial number 397 does not have any valid parent or spouse relationship with other voters in house number 103 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -29114,10 +29210,18 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>0</v>
-      </c>
-      <c r="O411" t="inlineStr"/>
-      <c r="P411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>Serial number 410 does not have any valid parent or spouse relationship with other voters in house number 107 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -29856,10 +29960,18 @@
         </is>
       </c>
       <c r="N422" t="n">
-        <v>0</v>
-      </c>
-      <c r="O422" t="inlineStr"/>
-      <c r="P422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>Serial number 421 does not have any valid parent or spouse relationship with other voters in house number 111 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -30524,10 +30636,18 @@
         </is>
       </c>
       <c r="N432" t="n">
-        <v>0</v>
-      </c>
-      <c r="O432" t="inlineStr"/>
-      <c r="P432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>Serial number 431 does not have any valid parent or spouse relationship with other voters in house number 121-1 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -30590,18 +30710,10 @@
         </is>
       </c>
       <c r="N433" t="n">
-        <v>1</v>
-      </c>
-      <c r="O433" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P433" t="inlineStr">
-        <is>
-          <t>Serial number 432 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -30804,16 +30916,16 @@
         </is>
       </c>
       <c r="N436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P436" t="inlineStr">
         <is>
-          <t>Serial number 435 is the only voter listed under house number 122-A on street '1-WARD NO 39 BHARATHI NAGAR COLONY' in booth 88. | Serial number 435 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 435 is the only voter listed under house number 122-A on street '1-WARD NO 39 BHARATHI NAGAR COLONY' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -30878,10 +30990,18 @@
         </is>
       </c>
       <c r="N437" t="n">
-        <v>0</v>
-      </c>
-      <c r="O437" t="inlineStr"/>
-      <c r="P437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>Serial number 436 does not have any valid parent or spouse relationship with other voters in house number 124 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -31018,10 +31138,18 @@
         </is>
       </c>
       <c r="N439" t="n">
-        <v>0</v>
-      </c>
-      <c r="O439" t="inlineStr"/>
-      <c r="P439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>Serial number 438 does not have any valid parent or spouse relationship with other voters in house number 124 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -31158,18 +31286,10 @@
         </is>
       </c>
       <c r="N441" t="n">
-        <v>1</v>
-      </c>
-      <c r="O441" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P441" t="inlineStr">
-        <is>
-          <t>Serial number 440 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O441" t="inlineStr"/>
+      <c r="P441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -31364,18 +31484,10 @@
         </is>
       </c>
       <c r="N444" t="n">
-        <v>1</v>
-      </c>
-      <c r="O444" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P444" t="inlineStr">
-        <is>
-          <t>Serial number 443 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O444" t="inlineStr"/>
+      <c r="P444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -31438,18 +31550,10 @@
         </is>
       </c>
       <c r="N445" t="n">
-        <v>1</v>
-      </c>
-      <c r="O445" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P445" t="inlineStr">
-        <is>
-          <t>Serial number 444 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -31850,10 +31954,18 @@
         </is>
       </c>
       <c r="N451" t="n">
-        <v>0</v>
-      </c>
-      <c r="O451" t="inlineStr"/>
-      <c r="P451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>Serial number 450 does not have any valid parent or spouse relationship with other voters in house number 129 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -32418,18 +32530,10 @@
         </is>
       </c>
       <c r="N459" t="n">
-        <v>1</v>
-      </c>
-      <c r="O459" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P459" t="inlineStr">
-        <is>
-          <t>Serial number 458 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O459" t="inlineStr"/>
+      <c r="P459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -32624,10 +32728,18 @@
         </is>
       </c>
       <c r="N462" t="n">
-        <v>0</v>
-      </c>
-      <c r="O462" t="inlineStr"/>
-      <c r="P462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>Serial number 461 does not have any valid parent or spouse relationship with other voters in house number 136 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -33094,10 +33206,18 @@
         </is>
       </c>
       <c r="N469" t="n">
-        <v>0</v>
-      </c>
-      <c r="O469" t="inlineStr"/>
-      <c r="P469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>Serial number 468 does not have any valid parent or spouse relationship with other voters in house number 137-59 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -33160,10 +33280,18 @@
         </is>
       </c>
       <c r="N470" t="n">
-        <v>0</v>
-      </c>
-      <c r="O470" t="inlineStr"/>
-      <c r="P470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>Serial number 469 does not have any valid parent or spouse relationship with other voters in house number 137-59 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -34182,18 +34310,10 @@
         </is>
       </c>
       <c r="N485" t="n">
-        <v>1</v>
-      </c>
-      <c r="O485" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P485" t="inlineStr">
-        <is>
-          <t>Serial number 484 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O485" t="inlineStr"/>
+      <c r="P485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -34932,18 +35052,10 @@
         </is>
       </c>
       <c r="N496" t="n">
-        <v>1</v>
-      </c>
-      <c r="O496" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P496" t="inlineStr">
-        <is>
-          <t>Serial number 495 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O496" t="inlineStr"/>
+      <c r="P496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -35492,10 +35604,18 @@
         </is>
       </c>
       <c r="N504" t="n">
-        <v>0</v>
-      </c>
-      <c r="O504" t="inlineStr"/>
-      <c r="P504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>Serial number 503 does not have any valid parent or spouse relationship with other voters in house number 154 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -35764,18 +35884,10 @@
         </is>
       </c>
       <c r="N508" t="n">
-        <v>1</v>
-      </c>
-      <c r="O508" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P508" t="inlineStr">
-        <is>
-          <t>Serial number 507 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -35904,16 +36016,16 @@
         </is>
       </c>
       <c r="N510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, INVALID_EPIC_ID</t>
+          <t>AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P510" t="inlineStr">
         <is>
-          <t>Serial number 509 was flagged due to rule: INVALID_EPIC_ID. | Serial number 509 has invalid age value 0.</t>
+          <t>Serial number 509 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -36942,10 +37054,18 @@
         </is>
       </c>
       <c r="N525" t="n">
-        <v>0</v>
-      </c>
-      <c r="O525" t="inlineStr"/>
-      <c r="P525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>Serial number 524 does not have any valid parent or spouse relationship with other voters in house number 165 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -37280,10 +37400,18 @@
         </is>
       </c>
       <c r="N530" t="n">
-        <v>0</v>
-      </c>
-      <c r="O530" t="inlineStr"/>
-      <c r="P530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P530" t="inlineStr">
+        <is>
+          <t>Serial number 529 does not have any valid parent or spouse relationship with other voters in house number 167 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -38542,10 +38670,18 @@
         </is>
       </c>
       <c r="N549" t="n">
-        <v>0</v>
-      </c>
-      <c r="O549" t="inlineStr"/>
-      <c r="P549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>Serial number 548 does not have any valid parent or spouse relationship with other voters in house number 173 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -38608,10 +38744,18 @@
         </is>
       </c>
       <c r="N550" t="n">
-        <v>0</v>
-      </c>
-      <c r="O550" t="inlineStr"/>
-      <c r="P550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P550" t="inlineStr">
+        <is>
+          <t>Serial number 549 does not have any valid parent or spouse relationship with other voters in house number 173 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -39820,16 +39964,16 @@
         </is>
       </c>
       <c r="N568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P568" t="inlineStr">
         <is>
-          <t>Serial number 567 does not have any valid parent or spouse relationship with other voters in house number 183 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | Serial number 567 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 567 does not have any valid parent or spouse relationship with other voters in house number 183 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
         </is>
       </c>
     </row>
@@ -40174,10 +40318,18 @@
         </is>
       </c>
       <c r="N573" t="n">
-        <v>0</v>
-      </c>
-      <c r="O573" t="inlineStr"/>
-      <c r="P573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P573" t="inlineStr">
+        <is>
+          <t>Serial number 572 does not have any valid parent or spouse relationship with other voters in house number 184-185 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -40372,18 +40524,10 @@
         </is>
       </c>
       <c r="N576" t="n">
-        <v>1</v>
-      </c>
-      <c r="O576" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P576" t="inlineStr">
-        <is>
-          <t>Serial number 575 is the only voter listed under house number 184/185 on street '1-WARD NO 39 BHARATHI NAGAR COLONY' in booth 88.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O576" t="inlineStr"/>
+      <c r="P576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -40520,18 +40664,10 @@
         </is>
       </c>
       <c r="N578" t="n">
-        <v>1</v>
-      </c>
-      <c r="O578" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P578" t="inlineStr">
-        <is>
-          <t>Serial number 577 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O578" t="inlineStr"/>
+      <c r="P578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -40594,18 +40730,10 @@
         </is>
       </c>
       <c r="N579" t="n">
-        <v>1</v>
-      </c>
-      <c r="O579" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P579" t="inlineStr">
-        <is>
-          <t>Serial number 578 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O579" t="inlineStr"/>
+      <c r="P579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -40668,18 +40796,10 @@
         </is>
       </c>
       <c r="N580" t="n">
-        <v>1</v>
-      </c>
-      <c r="O580" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P580" t="inlineStr">
-        <is>
-          <t>Serial number 579 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O580" t="inlineStr"/>
+      <c r="P580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -40746,12 +40866,12 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P581" t="inlineStr">
         <is>
-          <t>Serial number 580 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 580 does not have any valid parent or spouse relationship with other voters in house number 186 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
         </is>
       </c>
     </row>
@@ -43146,16 +43266,16 @@
         </is>
       </c>
       <c r="N615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P615" t="inlineStr">
         <is>
-          <t>House number 'A' does not contain any numeric digits.</t>
+          <t>Serial number 614 does not have any valid parent or spouse relationship with other voters in house number A on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | House number 'A' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -43656,18 +43776,10 @@
         </is>
       </c>
       <c r="N622" t="n">
-        <v>1</v>
-      </c>
-      <c r="O622" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P622" t="inlineStr">
-        <is>
-          <t>Serial number 621 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O622" t="inlineStr"/>
+      <c r="P622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -43730,18 +43842,10 @@
         </is>
       </c>
       <c r="N623" t="n">
-        <v>1</v>
-      </c>
-      <c r="O623" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P623" t="inlineStr">
-        <is>
-          <t>Serial number 622 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O623" t="inlineStr"/>
+      <c r="P623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -44462,10 +44566,18 @@
         </is>
       </c>
       <c r="N633" t="n">
-        <v>0</v>
-      </c>
-      <c r="O633" t="inlineStr"/>
-      <c r="P633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P633" t="inlineStr">
+        <is>
+          <t>Serial number 632 does not have any valid parent or spouse relationship with other voters in house number B302 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -45038,16 +45150,16 @@
         </is>
       </c>
       <c r="N641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P641" t="inlineStr">
         <is>
-          <t>House number 'C' does not contain any numeric digits.</t>
+          <t>Serial number 640 does not have any valid parent or spouse relationship with other voters in house number C on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | House number 'C' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -45112,16 +45224,16 @@
         </is>
       </c>
       <c r="N642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P642" t="inlineStr">
         <is>
-          <t>House number 'C' does not contain any numeric digits.</t>
+          <t>Serial number 641 does not have any valid parent or spouse relationship with other voters in house number C on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | House number 'C' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -45408,10 +45520,18 @@
         </is>
       </c>
       <c r="N646" t="n">
-        <v>0</v>
-      </c>
-      <c r="O646" t="inlineStr"/>
-      <c r="P646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P646" t="inlineStr">
+        <is>
+          <t>Serial number 645 does not have any valid parent or spouse relationship with other voters in house number D13 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -45474,10 +45594,18 @@
         </is>
       </c>
       <c r="N647" t="n">
-        <v>0</v>
-      </c>
-      <c r="O647" t="inlineStr"/>
-      <c r="P647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P647" t="inlineStr">
+        <is>
+          <t>Serial number 646 does not have any valid parent or spouse relationship with other voters in house number D13 on street '1-WARD NO 39 BHARATHI NAGAR COLONY'.</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -47104,16 +47232,16 @@
         </is>
       </c>
       <c r="N670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P670" t="inlineStr">
         <is>
-          <t>Serial number 669 is the only voter listed under house number F-9 on street '1-WARD NO 39 BHARATHI NAGAR COLONY' in booth 88. | Serial number 669 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 669 is the only voter listed under house number F-9 on street '1-WARD NO 39 BHARATHI NAGAR COLONY' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -47996,12 +48124,12 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P682" t="inlineStr">
         <is>
-          <t>Serial number 681 was flagged due to rule: INVALID_EPIC_ID. | House number 'na' does not contain any numeric digits.</t>
+          <t>Serial number 681 does not have any valid parent or spouse relationship with other voters in house number na on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | House number 'na' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -48070,12 +48198,12 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P683" t="inlineStr">
         <is>
-          <t>Serial number 682 was flagged due to rule: INVALID_EPIC_ID. | House number 'na' does not contain any numeric digits.</t>
+          <t>Serial number 682 does not have any valid parent or spouse relationship with other voters in house number na on street '1-WARD NO 39 BHARATHI NAGAR COLONY'. | House number 'na' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -48140,16 +48268,16 @@
         </is>
       </c>
       <c r="N684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
+          <t>INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P684" t="inlineStr">
         <is>
-          <t>Serial number 683 was flagged due to rule: INVALID_EPIC_ID. | House number 'na' does not contain any numeric digits.</t>
+          <t>House number 'na' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -50264,16 +50392,16 @@
         </is>
       </c>
       <c r="N714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P714" t="inlineStr">
         <is>
-          <t>Serial number 713 is the only voter listed under house number 10 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88. | Serial number 713 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 713 is the only voter listed under house number 10 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -50412,16 +50540,16 @@
         </is>
       </c>
       <c r="N716" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, HOUSE_NO_UNAVAILABLE, INVALID_EPIC_ID</t>
+          <t>AGE_ZERO_OR_INVALID, HOUSE_NO_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P716" t="inlineStr">
         <is>
-          <t>Serial number 715 was flagged due to rule: INVALID_EPIC_ID. | Serial number 715 has invalid age value 0. | Serial number 715 does not have a valid house number recorded.</t>
+          <t>Serial number 715 has invalid age value 0. | Serial number 715 does not have a valid house number recorded.</t>
         </is>
       </c>
     </row>
@@ -50692,16 +50820,16 @@
         </is>
       </c>
       <c r="N720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, HOUSE_NO_UNAVAILABLE, INVALID_EPIC_ID</t>
+          <t>AGE_ZERO_OR_INVALID, HOUSE_NO_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P720" t="inlineStr">
         <is>
-          <t>Serial number 719 was flagged due to rule: INVALID_EPIC_ID. | Serial number 719 has invalid age value 0. | Serial number 719 does not have a valid house number recorded.</t>
+          <t>Serial number 719 has invalid age value 0. | Serial number 719 does not have a valid house number recorded.</t>
         </is>
       </c>
     </row>
@@ -50840,10 +50968,18 @@
         </is>
       </c>
       <c r="N722" t="n">
-        <v>0</v>
-      </c>
-      <c r="O722" t="inlineStr"/>
-      <c r="P722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O722" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P722" t="inlineStr">
+        <is>
+          <t>Serial number 721 does not have any valid parent or spouse relationship with other voters in house number 12 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -51046,10 +51182,18 @@
         </is>
       </c>
       <c r="N725" t="n">
-        <v>0</v>
-      </c>
-      <c r="O725" t="inlineStr"/>
-      <c r="P725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O725" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P725" t="inlineStr">
+        <is>
+          <t>Serial number 724 does not have any valid parent or spouse relationship with other voters in house number 12 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -51178,18 +51322,10 @@
         </is>
       </c>
       <c r="N727" t="n">
-        <v>1</v>
-      </c>
-      <c r="O727" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P727" t="inlineStr">
-        <is>
-          <t>Serial number 726 is the only voter listed under house number 12/1 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O727" t="inlineStr"/>
+      <c r="P727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -51252,18 +51388,10 @@
         </is>
       </c>
       <c r="N728" t="n">
-        <v>1</v>
-      </c>
-      <c r="O728" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P728" t="inlineStr">
-        <is>
-          <t>Serial number 727 is the only voter listed under house number 12-1 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O728" t="inlineStr"/>
+      <c r="P728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="n">
@@ -51684,12 +51812,12 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P734" t="inlineStr">
         <is>
-          <t>Serial number 733 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 733 does not have any valid parent or spouse relationship with other voters in house number 14 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -53052,12 +53180,12 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P754" t="inlineStr">
         <is>
-          <t>Serial number 753 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 753 does not have any valid parent or spouse relationship with other voters in house number 19 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -53254,10 +53382,18 @@
         </is>
       </c>
       <c r="N757" t="n">
-        <v>0</v>
-      </c>
-      <c r="O757" t="inlineStr"/>
-      <c r="P757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O757" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P757" t="inlineStr">
+        <is>
+          <t>Serial number 756 does not have any valid parent or spouse relationship with other voters in house number 20 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -53996,18 +54132,10 @@
         </is>
       </c>
       <c r="N768" t="n">
-        <v>1</v>
-      </c>
-      <c r="O768" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P768" t="inlineStr">
-        <is>
-          <t>Serial number 767 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O768" t="inlineStr"/>
+      <c r="P768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="n">
@@ -54070,10 +54198,18 @@
         </is>
       </c>
       <c r="N769" t="n">
-        <v>0</v>
-      </c>
-      <c r="O769" t="inlineStr"/>
-      <c r="P769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O769" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P769" t="inlineStr">
+        <is>
+          <t>Serial number 768 does not have any valid parent or spouse relationship with other voters in house number 21 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
@@ -54136,18 +54272,10 @@
         </is>
       </c>
       <c r="N770" t="n">
-        <v>1</v>
-      </c>
-      <c r="O770" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P770" t="inlineStr">
-        <is>
-          <t>Serial number 769 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O770" t="inlineStr"/>
+      <c r="P770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="n">
@@ -54210,18 +54338,10 @@
         </is>
       </c>
       <c r="N771" t="n">
-        <v>1</v>
-      </c>
-      <c r="O771" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P771" t="inlineStr">
-        <is>
-          <t>Serial number 770 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O771" t="inlineStr"/>
+      <c r="P771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="n">
@@ -54284,18 +54404,10 @@
         </is>
       </c>
       <c r="N772" t="n">
-        <v>1</v>
-      </c>
-      <c r="O772" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P772" t="inlineStr">
-        <is>
-          <t>Serial number 771 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O772" t="inlineStr"/>
+      <c r="P772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="n">
@@ -54358,16 +54470,16 @@
         </is>
       </c>
       <c r="N773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P773" t="inlineStr">
         <is>
-          <t>Serial number 772 is the only voter listed under house number 21/16 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88. | Serial number 772 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 772 is the only voter listed under house number 21/16 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -55342,12 +55454,12 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P787" t="inlineStr">
         <is>
-          <t>Serial number 786 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 786 does not have any valid parent or spouse relationship with other voters in house number 27 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -55412,18 +55524,10 @@
         </is>
       </c>
       <c r="N788" t="n">
-        <v>1</v>
-      </c>
-      <c r="O788" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P788" t="inlineStr">
-        <is>
-          <t>Serial number 787 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O788" t="inlineStr"/>
+      <c r="P788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -55486,18 +55590,10 @@
         </is>
       </c>
       <c r="N789" t="n">
-        <v>1</v>
-      </c>
-      <c r="O789" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P789" t="inlineStr">
-        <is>
-          <t>Serial number 788 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O789" t="inlineStr"/>
+      <c r="P789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="n">
@@ -55564,12 +55660,12 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P790" t="inlineStr">
         <is>
-          <t>Serial number 789 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 789 does not have any valid parent or spouse relationship with other voters in house number 27 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -56862,18 +56958,10 @@
         </is>
       </c>
       <c r="N809" t="n">
-        <v>1</v>
-      </c>
-      <c r="O809" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P809" t="inlineStr">
-        <is>
-          <t>Serial number 808 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O809" t="inlineStr"/>
+      <c r="P809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="n">
@@ -57134,18 +57222,10 @@
         </is>
       </c>
       <c r="N813" t="n">
-        <v>1</v>
-      </c>
-      <c r="O813" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P813" t="inlineStr">
-        <is>
-          <t>Serial number 812 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O813" t="inlineStr"/>
+      <c r="P813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="n">
@@ -57208,18 +57288,10 @@
         </is>
       </c>
       <c r="N814" t="n">
-        <v>1</v>
-      </c>
-      <c r="O814" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P814" t="inlineStr">
-        <is>
-          <t>Serial number 813 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O814" t="inlineStr"/>
+      <c r="P814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -57348,18 +57420,10 @@
         </is>
       </c>
       <c r="N816" t="n">
-        <v>1</v>
-      </c>
-      <c r="O816" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P816" t="inlineStr">
-        <is>
-          <t>Serial number 815 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O816" t="inlineStr"/>
+      <c r="P816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="n">
@@ -58156,16 +58220,16 @@
         </is>
       </c>
       <c r="N828" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P828" t="inlineStr">
         <is>
-          <t>Serial number 827 does not have any valid parent or spouse relationship with other voters in house number 34 on street '2-WARD NO 39 GOPAL NAGAR'. | Serial number 827 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 827 does not have any valid parent or spouse relationship with other voters in house number 34 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -58230,18 +58294,10 @@
         </is>
       </c>
       <c r="N829" t="n">
-        <v>1</v>
-      </c>
-      <c r="O829" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P829" t="inlineStr">
-        <is>
-          <t>Serial number 828 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O829" t="inlineStr"/>
+      <c r="P829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" t="n">
@@ -58304,16 +58360,16 @@
         </is>
       </c>
       <c r="N830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P830" t="inlineStr">
         <is>
-          <t>Serial number 829 does not have any valid parent or spouse relationship with other voters in house number 34 on street '2-WARD NO 39 GOPAL NAGAR'. | Serial number 829 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 829 does not have any valid parent or spouse relationship with other voters in house number 34 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -58848,10 +58904,18 @@
         </is>
       </c>
       <c r="N838" t="n">
-        <v>0</v>
-      </c>
-      <c r="O838" t="inlineStr"/>
-      <c r="P838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O838" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P838" t="inlineStr">
+        <is>
+          <t>Serial number 837 does not have any valid parent or spouse relationship with other voters in house number 35 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
@@ -60364,10 +60428,18 @@
         </is>
       </c>
       <c r="N860" t="n">
-        <v>0</v>
-      </c>
-      <c r="O860" t="inlineStr"/>
-      <c r="P860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O860" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P860" t="inlineStr">
+        <is>
+          <t>Serial number 859 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
@@ -60504,16 +60576,16 @@
         </is>
       </c>
       <c r="N862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P862" t="inlineStr">
         <is>
-          <t>Serial number 861 is the only voter listed under house number 40 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88. | Serial number 861 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 861 is the only voter listed under house number 40 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -60800,18 +60872,10 @@
         </is>
       </c>
       <c r="N866" t="n">
-        <v>1</v>
-      </c>
-      <c r="O866" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P866" t="inlineStr">
-        <is>
-          <t>Serial number 865 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O866" t="inlineStr"/>
+      <c r="P866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="n">
@@ -60874,18 +60938,10 @@
         </is>
       </c>
       <c r="N867" t="n">
-        <v>1</v>
-      </c>
-      <c r="O867" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P867" t="inlineStr">
-        <is>
-          <t>Serial number 866 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O867" t="inlineStr"/>
+      <c r="P867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="n">
@@ -61080,18 +61136,10 @@
         </is>
       </c>
       <c r="N870" t="n">
-        <v>1</v>
-      </c>
-      <c r="O870" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P870" t="inlineStr">
-        <is>
-          <t>Serial number 869 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O870" t="inlineStr"/>
+      <c r="P870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -64630,18 +64678,10 @@
         </is>
       </c>
       <c r="N921" t="n">
-        <v>1</v>
-      </c>
-      <c r="O921" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P921" t="inlineStr">
-        <is>
-          <t>Serial number 920 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O921" t="inlineStr"/>
+      <c r="P921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" t="n">
@@ -64778,16 +64818,16 @@
         </is>
       </c>
       <c r="N923" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P923" t="inlineStr">
         <is>
-          <t>Serial number 922 is the only voter listed under house number 54A on street '2-WARD NO 39 GOPAL NAGAR' in booth 88. | Serial number 922 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 922 is the only voter listed under house number 54A on street '2-WARD NO 39 GOPAL NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -64926,16 +64966,16 @@
         </is>
       </c>
       <c r="N925" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P925" t="inlineStr">
         <is>
-          <t>Serial number 924 does not have any valid parent or spouse relationship with other voters in house number 55 on street '2-WARD NO 39 GOPAL NAGAR'. | Serial number 924 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 924 does not have any valid parent or spouse relationship with other voters in house number 55 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -65000,18 +65040,10 @@
         </is>
       </c>
       <c r="N926" t="n">
-        <v>1</v>
-      </c>
-      <c r="O926" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P926" t="inlineStr">
-        <is>
-          <t>Serial number 925 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O926" t="inlineStr"/>
+      <c r="P926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="n">
@@ -65610,10 +65642,18 @@
         </is>
       </c>
       <c r="N935" t="n">
-        <v>0</v>
-      </c>
-      <c r="O935" t="inlineStr"/>
-      <c r="P935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O935" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P935" t="inlineStr">
+        <is>
+          <t>Serial number 934 does not have any valid parent or spouse relationship with other voters in house number 60 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
@@ -65948,10 +65988,18 @@
         </is>
       </c>
       <c r="N940" t="n">
-        <v>0</v>
-      </c>
-      <c r="O940" t="inlineStr"/>
-      <c r="P940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O940" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P940" t="inlineStr">
+        <is>
+          <t>Serial number 939 does not have any valid parent or spouse relationship with other voters in house number 64 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
@@ -66146,10 +66194,18 @@
         </is>
       </c>
       <c r="N943" t="n">
-        <v>0</v>
-      </c>
-      <c r="O943" t="inlineStr"/>
-      <c r="P943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O943" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P943" t="inlineStr">
+        <is>
+          <t>Serial number 942 does not have any valid parent or spouse relationship with other voters in house number 64 on street '2-WARD NO 39 GOPAL NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
@@ -66624,18 +66680,10 @@
         </is>
       </c>
       <c r="N950" t="n">
-        <v>1</v>
-      </c>
-      <c r="O950" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P950" t="inlineStr">
-        <is>
-          <t>Serial number 949 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O950" t="inlineStr"/>
+      <c r="P950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" t="n">
@@ -66978,16 +67026,16 @@
         </is>
       </c>
       <c r="N955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P955" t="inlineStr">
         <is>
-          <t>Serial number 954 is the only voter listed under house number 76 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88. | Serial number 954 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 954 is the only voter listed under house number 76 on street '2-WARD NO 39 GOPAL NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -67052,16 +67100,16 @@
         </is>
       </c>
       <c r="N956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P956" t="inlineStr">
         <is>
-          <t>Serial number 955 is the only voter listed under house number 76-A on street '2-WARD NO 39 GOPAL NAGAR' in booth 88. | Serial number 955 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 955 is the only voter listed under house number 76-A on street '2-WARD NO 39 GOPAL NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -67900,18 +67948,10 @@
         </is>
       </c>
       <c r="N968" t="n">
-        <v>1</v>
-      </c>
-      <c r="O968" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P968" t="inlineStr">
-        <is>
-          <t>Serial number 967 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O968" t="inlineStr"/>
+      <c r="P968" t="inlineStr"/>
     </row>
     <row r="969">
       <c r="A969" t="n">
@@ -69578,16 +69618,16 @@
         </is>
       </c>
       <c r="N991" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P991" t="inlineStr">
         <is>
-          <t>House number 1 on street '3-WARD NO 39 SIRUNGAR NAGAR' contains 13 registered voters including serial number 990, which exceeds the household size threshold. | Serial number 990 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 1 on street '3-WARD NO 39 SIRUNGAR NAGAR' contains 13 registered voters including serial number 990, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -69726,16 +69766,16 @@
         </is>
       </c>
       <c r="N993" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P993" t="inlineStr">
         <is>
-          <t>House number 1 on street '3-WARD NO 39 SIRUNGAR NAGAR' contains 13 registered voters including serial number 992, which exceeds the household size threshold. | Serial number 992 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 1 on street '3-WARD NO 39 SIRUNGAR NAGAR' contains 13 registered voters including serial number 992, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -70022,16 +70062,16 @@
         </is>
       </c>
       <c r="N997" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P997" t="inlineStr">
         <is>
-          <t>House number 1 on street '3-WARD NO 39 SIRUNGAR NAGAR' contains 13 registered voters including serial number 996, which exceeds the household size threshold. | Serial number 996 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 1 on street '3-WARD NO 39 SIRUNGAR NAGAR' contains 13 registered voters including serial number 996, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -70392,16 +70432,16 @@
         </is>
       </c>
       <c r="N1002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P1002" t="inlineStr">
         <is>
-          <t>House number 1 on street '3-WARD NO 39 SIRUNGAR NAGAR' contains 13 registered voters including serial number 1001, which exceeds the household size threshold. | Serial number 1001 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 1 on street '3-WARD NO 39 SIRUNGAR NAGAR' contains 13 registered voters including serial number 1001, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -70906,12 +70946,12 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1009" t="inlineStr">
         <is>
-          <t>Serial number 1008 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1008 does not have any valid parent or spouse relationship with other voters in house number 2 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -70976,10 +71016,18 @@
         </is>
       </c>
       <c r="N1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1010" t="inlineStr"/>
-      <c r="P1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1010" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1010" t="inlineStr">
+        <is>
+          <t>Serial number 1009 does not have any valid parent or spouse relationship with other voters in house number 2 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
@@ -71850,18 +71898,10 @@
         </is>
       </c>
       <c r="N1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1023" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1023" t="inlineStr">
-        <is>
-          <t>Serial number 1022 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1023" t="inlineStr"/>
+      <c r="P1023" t="inlineStr"/>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
@@ -71924,18 +71964,10 @@
         </is>
       </c>
       <c r="N1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1024" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1024" t="inlineStr">
-        <is>
-          <t>Serial number 1023 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1024" t="inlineStr"/>
+      <c r="P1024" t="inlineStr"/>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
@@ -72220,16 +72252,16 @@
         </is>
       </c>
       <c r="N1028" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1028" t="inlineStr">
         <is>
-          <t>Serial number 1027 is the only voter listed under house number 11A on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88. | Serial number 1027 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1027 is the only voter listed under house number 11A on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -72298,12 +72330,12 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1029" t="inlineStr">
         <is>
-          <t>Serial number 1028 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1028 does not have any valid parent or spouse relationship with other voters in house number 114 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -72372,12 +72404,12 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1030" t="inlineStr">
         <is>
-          <t>Serial number 1029 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1029 does not have any valid parent or spouse relationship with other voters in house number 114 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -72442,16 +72474,16 @@
         </is>
       </c>
       <c r="N1031" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1031" t="inlineStr">
         <is>
-          <t>Serial number 1030 is the only voter listed under house number 117A on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88. | Serial number 1030 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1030 is the only voter listed under house number 117A on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -72714,18 +72746,10 @@
         </is>
       </c>
       <c r="N1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1035" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1035" t="inlineStr">
-        <is>
-          <t>Serial number 1034 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1035" t="inlineStr"/>
+      <c r="P1035" t="inlineStr"/>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
@@ -73600,12 +73624,12 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1048" t="inlineStr">
         <is>
-          <t>Serial number 1047 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1047 does not have any valid parent or spouse relationship with other voters in house number 15 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -73802,16 +73826,16 @@
         </is>
       </c>
       <c r="N1051" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1051" t="inlineStr">
         <is>
-          <t>Serial number 1050 does not have any valid parent or spouse relationship with other voters in house number 154 on street '3-WARD NO 39 SIRUNGAR NAGAR'. | Serial number 1050 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1050 does not have any valid parent or spouse relationship with other voters in house number 154 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -74362,18 +74386,10 @@
         </is>
       </c>
       <c r="N1059" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1059" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1059" t="inlineStr">
-        <is>
-          <t>Serial number 1058 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1059" t="inlineStr"/>
+      <c r="P1059" t="inlineStr"/>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
@@ -74436,16 +74452,16 @@
         </is>
       </c>
       <c r="N1060" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1060" t="inlineStr">
         <is>
-          <t>Serial number 1059 does not have any valid parent or spouse relationship with other voters in house number 17A on street '3-WARD NO 39 SIRUNGAR NAGAR'. | Serial number 1059 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1059 does not have any valid parent or spouse relationship with other voters in house number 17A on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -74806,18 +74822,10 @@
         </is>
       </c>
       <c r="N1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1065" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1065" t="inlineStr">
-        <is>
-          <t>Serial number 1064 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1065" t="inlineStr"/>
+      <c r="P1065" t="inlineStr"/>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
@@ -74884,12 +74892,12 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1066" t="inlineStr">
         <is>
-          <t>Serial number 1065 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1065 does not have any valid parent or spouse relationship with other voters in house number 21 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -74954,18 +74962,10 @@
         </is>
       </c>
       <c r="N1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1067" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1067" t="inlineStr">
-        <is>
-          <t>Serial number 1066 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1067" t="inlineStr"/>
+      <c r="P1067" t="inlineStr"/>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
@@ -75032,12 +75032,12 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1068" t="inlineStr">
         <is>
-          <t>Serial number 1067 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1067 does not have any valid parent or spouse relationship with other voters in house number 21 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -75324,16 +75324,16 @@
         </is>
       </c>
       <c r="N1072" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1072" t="inlineStr">
         <is>
-          <t>Serial number 1071 does not have any valid parent or spouse relationship with other voters in house number 23 on street '3-WARD NO 39 SIRUNGAR NAGAR'. | Serial number 1071 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1071 does not have any valid parent or spouse relationship with other voters in house number 23 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -75670,18 +75670,10 @@
         </is>
       </c>
       <c r="N1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1077" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1077" t="inlineStr">
-        <is>
-          <t>Serial number 1076 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1077" t="inlineStr"/>
+      <c r="P1077" t="inlineStr"/>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
@@ -76156,18 +76148,10 @@
         </is>
       </c>
       <c r="N1084" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1084" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1084" t="inlineStr">
-        <is>
-          <t>Serial number 1083 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1084" t="inlineStr"/>
+      <c r="P1084" t="inlineStr"/>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
@@ -76230,10 +76214,18 @@
         </is>
       </c>
       <c r="N1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1085" t="inlineStr"/>
-      <c r="P1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1085" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1085" t="inlineStr">
+        <is>
+          <t>Serial number 1084 does not have any valid parent or spouse relationship with other voters in house number 25 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
@@ -76296,16 +76288,16 @@
         </is>
       </c>
       <c r="N1086" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1086" t="inlineStr">
         <is>
-          <t>Serial number 1085 does not have any valid parent or spouse relationship with other voters in house number 25C on street '3-WARD NO 39 SIRUNGAR NAGAR'. | Serial number 1085 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1085 does not have any valid parent or spouse relationship with other voters in house number 25C on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -77268,18 +77260,10 @@
         </is>
       </c>
       <c r="N1100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1100" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1100" t="inlineStr">
-        <is>
-          <t>Serial number 1099 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1100" t="inlineStr"/>
+      <c r="P1100" t="inlineStr"/>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
@@ -77342,16 +77326,16 @@
         </is>
       </c>
       <c r="N1101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P1101" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 31 on street '3-WARD NO 39 SIRUNGAR NAGAR' share the same name as serial number 1100. | Serial number 1100 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Multiple voters in house number 31 on street '3-WARD NO 39 SIRUNGAR NAGAR' share the same name as serial number 1100.</t>
         </is>
       </c>
     </row>
@@ -78042,18 +78026,10 @@
         </is>
       </c>
       <c r="N1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1111" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1111" t="inlineStr">
-        <is>
-          <t>Serial number 1110 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1111" t="inlineStr"/>
+      <c r="P1111" t="inlineStr"/>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
@@ -78722,12 +78698,12 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1121" t="inlineStr">
         <is>
-          <t>Serial number 1120 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1120 does not have any valid parent or spouse relationship with other voters in house number 36 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -79328,18 +79304,10 @@
         </is>
       </c>
       <c r="N1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1130" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P1130" t="inlineStr">
-        <is>
-          <t>Serial number 1129 is the only voter listed under house number 37/53 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1130" t="inlineStr"/>
+      <c r="P1130" t="inlineStr"/>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
@@ -79534,18 +79502,10 @@
         </is>
       </c>
       <c r="N1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1133" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1133" t="inlineStr">
-        <is>
-          <t>Serial number 1132 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1133" t="inlineStr"/>
+      <c r="P1133" t="inlineStr"/>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
@@ -80086,10 +80046,18 @@
         </is>
       </c>
       <c r="N1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1141" t="inlineStr"/>
-      <c r="P1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1141" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1141" t="inlineStr">
+        <is>
+          <t>Serial number 1140 does not have any valid parent or spouse relationship with other voters in house number 41 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
@@ -80152,18 +80120,10 @@
         </is>
       </c>
       <c r="N1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1142" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1142" t="inlineStr">
-        <is>
-          <t>Serial number 1141 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1142" t="inlineStr"/>
+      <c r="P1142" t="inlineStr"/>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
@@ -80226,18 +80186,10 @@
         </is>
       </c>
       <c r="N1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1143" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1143" t="inlineStr">
-        <is>
-          <t>Serial number 1142 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1143" t="inlineStr"/>
+      <c r="P1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
@@ -80572,10 +80524,18 @@
         </is>
       </c>
       <c r="N1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1148" t="inlineStr"/>
-      <c r="P1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1148" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1148" t="inlineStr">
+        <is>
+          <t>Serial number 1147 does not have any valid parent or spouse relationship with other voters in house number 42 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
@@ -80770,18 +80730,10 @@
         </is>
       </c>
       <c r="N1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1151" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1151" t="inlineStr">
-        <is>
-          <t>Serial number 1150 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1151" t="inlineStr"/>
+      <c r="P1151" t="inlineStr"/>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
@@ -81314,10 +81266,18 @@
         </is>
       </c>
       <c r="N1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1159" t="inlineStr"/>
-      <c r="P1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1159" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1159" t="inlineStr">
+        <is>
+          <t>Serial number 1158 does not have any valid parent or spouse relationship with other voters in house number 44 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
@@ -81512,16 +81472,16 @@
         </is>
       </c>
       <c r="N1162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1162" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, UNDER_18</t>
+          <t>UNDER_18</t>
         </is>
       </c>
       <c r="P1162" t="inlineStr">
         <is>
-          <t>Serial number 1161 was flagged due to rule: INVALID_EPIC_ID. | Serial number 1161 has age 3, below voting age.</t>
+          <t>Serial number 1161 has age 3, below voting age.</t>
         </is>
       </c>
     </row>
@@ -81718,10 +81678,18 @@
         </is>
       </c>
       <c r="N1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1165" t="inlineStr"/>
-      <c r="P1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1165" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1165" t="inlineStr">
+        <is>
+          <t>Serial number 1164 does not have any valid parent or spouse relationship with other voters in house number 45 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
@@ -81916,10 +81884,18 @@
         </is>
       </c>
       <c r="N1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1168" t="inlineStr"/>
-      <c r="P1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1168" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1168" t="inlineStr">
+        <is>
+          <t>Serial number 1167 does not have any valid parent or spouse relationship with other voters in house number 45 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
@@ -82270,16 +82246,16 @@
         </is>
       </c>
       <c r="N1173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1173" t="inlineStr">
         <is>
-          <t>Serial number 1172 is the only voter listed under house number 49 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88. | Serial number 1172 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1172 is the only voter listed under house number 49 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -82880,10 +82856,18 @@
         </is>
       </c>
       <c r="N1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1182" t="inlineStr"/>
-      <c r="P1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1182" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1182" t="inlineStr">
+        <is>
+          <t>Serial number 1181 does not have any valid parent or spouse relationship with other voters in house number 51 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
@@ -83152,16 +83136,16 @@
         </is>
       </c>
       <c r="N1186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1186" t="inlineStr">
         <is>
-          <t>Serial number 1185 is the only voter listed under house number 54-A-4 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88. | Serial number 1185 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1185 is the only voter listed under house number 54-A-4 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -83226,16 +83210,16 @@
         </is>
       </c>
       <c r="N1187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1187" t="inlineStr">
         <is>
-          <t>Serial number 1186 is the only voter listed under house number 54-4-4 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88. | Serial number 1186 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1186 is the only voter listed under house number 54-4-4 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -83432,18 +83416,10 @@
         </is>
       </c>
       <c r="N1190" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1190" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1190" t="inlineStr">
-        <is>
-          <t>Serial number 1189 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1190" t="inlineStr"/>
+      <c r="P1190" t="inlineStr"/>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
@@ -83844,10 +83820,18 @@
         </is>
       </c>
       <c r="N1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1196" t="inlineStr"/>
-      <c r="P1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1196" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1196" t="inlineStr">
+        <is>
+          <t>Serial number 1195 does not have any valid parent or spouse relationship with other voters in house number 58 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
@@ -83984,16 +83968,16 @@
         </is>
       </c>
       <c r="N1198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1198" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P1198" t="inlineStr">
         <is>
-          <t>Serial number 1197 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1197 does not have any valid parent or spouse relationship with other voters in house number 58 on street '3-WARD NO 39 SIRUNGAR NAGAR'. | Serial number 1197 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -84058,10 +84042,18 @@
         </is>
       </c>
       <c r="N1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1199" t="inlineStr"/>
-      <c r="P1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1199" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1199" t="inlineStr">
+        <is>
+          <t>Serial number 1198 does not have any valid parent or spouse relationship with other voters in house number 58 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
@@ -84346,10 +84338,18 @@
         </is>
       </c>
       <c r="N1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1203" t="inlineStr"/>
-      <c r="P1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1203" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1203" t="inlineStr">
+        <is>
+          <t>Serial number 1202 does not have any valid parent or spouse relationship with other voters in house number 59 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
@@ -84486,10 +84486,18 @@
         </is>
       </c>
       <c r="N1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1205" t="inlineStr"/>
-      <c r="P1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1205" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1205" t="inlineStr">
+        <is>
+          <t>Serial number 1204 does not have any valid parent or spouse relationship with other voters in house number 59 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
@@ -84552,10 +84560,18 @@
         </is>
       </c>
       <c r="N1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1206" t="inlineStr"/>
-      <c r="P1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1206" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1206" t="inlineStr">
+        <is>
+          <t>Serial number 1205 does not have any valid parent or spouse relationship with other voters in house number 59 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
+        </is>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
@@ -84618,16 +84634,16 @@
         </is>
       </c>
       <c r="N1207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1207" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1207" t="inlineStr">
         <is>
-          <t>Serial number 1206 does not have any valid parent or spouse relationship with other voters in house number 61 on street '3-WARD NO 39 SIRUNGAR NAGAR'. | Serial number 1206 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1206 does not have any valid parent or spouse relationship with other voters in house number 61 on street '3-WARD NO 39 SIRUNGAR NAGAR'.</t>
         </is>
       </c>
     </row>
@@ -84972,18 +84988,10 @@
         </is>
       </c>
       <c r="N1212" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1212" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1212" t="inlineStr">
-        <is>
-          <t>Serial number 1211 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1212" t="inlineStr"/>
+      <c r="P1212" t="inlineStr"/>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
@@ -85120,18 +85128,10 @@
         </is>
       </c>
       <c r="N1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1214" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1214" t="inlineStr">
-        <is>
-          <t>Serial number 1213 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1214" t="inlineStr"/>
+      <c r="P1214" t="inlineStr"/>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
@@ -85194,18 +85194,10 @@
         </is>
       </c>
       <c r="N1215" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1215" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1215" t="inlineStr">
-        <is>
-          <t>Serial number 1214 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1215" t="inlineStr"/>
+      <c r="P1215" t="inlineStr"/>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
@@ -85828,18 +85820,10 @@
         </is>
       </c>
       <c r="N1224" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1224" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1224" t="inlineStr">
-        <is>
-          <t>Serial number 1223 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1224" t="inlineStr"/>
+      <c r="P1224" t="inlineStr"/>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
@@ -85968,16 +85952,16 @@
         </is>
       </c>
       <c r="N1226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1226" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1226" t="inlineStr">
         <is>
-          <t>Serial number 1225 is the only voter listed under house number 310 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88. | Serial number 1225 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1225 is the only voter listed under house number 310 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -86190,16 +86174,16 @@
         </is>
       </c>
       <c r="N1229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1229" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1229" t="inlineStr">
         <is>
-          <t>Serial number 1228 is the only voter listed under house number 441 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88. | Serial number 1228 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1228 is the only voter listed under house number 441 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
@@ -86264,16 +86248,16 @@
         </is>
       </c>
       <c r="N1230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1230" t="inlineStr">
         <is>
-          <t>Serial number 1229 is the only voter listed under house number 1364 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88. | Serial number 1229 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1229 is the only voter listed under house number 1364 on street '3-WARD NO 39 SIRUNGAR NAGAR' in booth 88.</t>
         </is>
       </c>
     </row>
